--- a/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>SNPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,124 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -780,26 +793,26 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
@@ -809,49 +822,61 @@
       <c r="O9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,38 +982,44 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
@@ -990,40 +1029,46 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>2000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-400</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,13 +1209,15 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1171,145 +1238,169 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-400</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
         <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-300</v>
-      </c>
       <c r="H21" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>-600</v>
       </c>
       <c r="F23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-600</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
       </c>
       <c r="J23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>-600</v>
       </c>
       <c r="F26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-600</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
       </c>
       <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,13 +1769,19 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1663,63 +1802,75 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
       </c>
       <c r="J33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
       </c>
       <c r="J35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +2051,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1892,37 +2065,43 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,13 +2141,19 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -1980,22 +2165,22 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2003,8 +2188,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2029,38 +2220,44 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2083,51 +2280,63 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3800</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2152,14 +2361,14 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2167,40 +2376,46 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2208,8 +2423,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2234,14 +2455,14 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1400</v>
+        <v>0</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>1400</v>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,40 +2564,46 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1700</v>
+        <v>5700</v>
       </c>
       <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
+      <c r="F52" s="3">
+        <v>1700</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
+        <v>1700</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2658,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G54" s="3">
         <v>7100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,16 +2747,18 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -2518,133 +2779,151 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>1100</v>
       </c>
       <c r="O57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>6800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
       </c>
       <c r="K58" s="3">
+        <v>600</v>
+      </c>
+      <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="E59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F60" s="3">
         <v>9200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1400</v>
       </c>
       <c r="N60" s="3">
         <v>1400</v>
@@ -2652,25 +2931,31 @@
       <c r="O60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1300</v>
+        <v>8700</v>
       </c>
       <c r="E61" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -2682,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
@@ -2693,49 +2978,61 @@
       <c r="O61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+        <v>1300</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3166,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F66" s="3">
         <v>10000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>6000</v>
       </c>
       <c r="O66" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3420,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-15800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3608,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-2600</v>
       </c>
       <c r="L76" s="3">
         <v>-1700</v>
       </c>
       <c r="M76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
       </c>
       <c r="J81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3867,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,22 +4172,24 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -3762,11 +4203,11 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3774,8 +4215,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,20 +4309,26 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -3897,8 +4356,14 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4563,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>5400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4657,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,138 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
       <c r="O8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
       <c r="Q8" s="3">
+        <v>300</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -790,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -799,26 +813,26 @@
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
@@ -828,55 +842,67 @@
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,43 +1022,49 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>1200</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>1200</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1035,46 +1075,52 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>700</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>700</v>
+      </c>
+      <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>2000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,19 +1277,21 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1244,163 +1312,187 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I21" s="3">
         <v>-300</v>
       </c>
       <c r="J21" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>-600</v>
       </c>
       <c r="H23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-600</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>-600</v>
       </c>
       <c r="H26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-600</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
       </c>
       <c r="J27" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,19 +1909,25 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1808,69 +1948,81 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-500</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
       </c>
       <c r="J33" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
       </c>
       <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-500</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
       </c>
       <c r="J35" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
       </c>
       <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2071,37 +2245,43 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2156,10 +2342,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2171,22 +2357,22 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2226,44 +2418,50 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
-        <v>100</v>
-      </c>
-      <c r="O44" s="3">
-        <v>100</v>
-      </c>
       <c r="P44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2286,57 +2484,69 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3800</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2367,61 +2577,67 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2461,14 +2683,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1400</v>
       </c>
       <c r="P49" s="3">
         <v>1400</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,46 +2804,52 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F52" s="3">
         <v>5700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1700</v>
       </c>
       <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F54" s="3">
         <v>9300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>7100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2758,13 +3020,13 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
-        <v>300</v>
-      </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -2785,151 +3047,169 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>1100</v>
       </c>
       <c r="Q57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>6800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>6700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>6700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
       </c>
       <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
+        <v>600</v>
+      </c>
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>9700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1400</v>
       </c>
       <c r="P60" s="3">
         <v>1400</v>
@@ -2937,20 +3217,26 @@
       <c r="Q60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>8700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2958,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -2973,10 +3259,10 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>300</v>
+      </c>
+      <c r="S61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2993,7 +3285,7 @@
         <v>1200</v>
       </c>
       <c r="E62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
@@ -3001,38 +3293,44 @@
       <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>4400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3482,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3181,46 +3497,52 @@
         <v>12900</v>
       </c>
       <c r="E66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G66" s="3">
         <v>10300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>6000</v>
       </c>
       <c r="Q66" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S66" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-5900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-13000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-2600</v>
       </c>
       <c r="N76" s="3">
         <v>-1700</v>
       </c>
       <c r="O76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-500</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
       </c>
       <c r="J81" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
       </c>
       <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,28 +4614,30 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -4209,11 +4651,11 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,26 +4769,32 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>5400</v>
-      </c>
       <c r="G100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>SNPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,13 +758,13 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -769,16 +773,16 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
@@ -787,16 +791,19 @@
         <v>200</v>
       </c>
       <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,32 +817,32 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -860,26 +870,26 @@
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
@@ -887,22 +897,25 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,23 +1059,23 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1063,11 +1083,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>1200</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1081,40 +1101,43 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
@@ -1122,8 +1145,8 @@
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,16 +1178,17 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1170,28 +1197,28 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1200,66 +1227,72 @@
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,11 +1325,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1318,107 +1352,113 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>100</v>
-      </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1427,72 +1467,78 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-400</v>
       </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,11 +1997,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1954,75 +2024,81 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-400</v>
       </c>
       <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-400</v>
       </c>
       <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2251,37 +2338,40 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,13 +2423,16 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2348,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2363,19 +2456,19 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2424,47 +2520,50 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
-        <v>100</v>
-      </c>
       <c r="Q44" s="3">
         <v>100</v>
       </c>
       <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2490,43 +2589,46 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3800</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
@@ -2534,10 +2636,10 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2583,12 +2688,12 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
@@ -2598,31 +2703,34 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2631,7 +2739,7 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
@@ -2640,7 +2748,7 @@
         <v>300</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2689,11 +2800,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1400</v>
       </c>
       <c r="Q49" s="3">
         <v>1400</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,22 +2927,25 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1700</v>
       </c>
       <c r="H52" s="3">
         <v>1700</v>
@@ -2833,17 +2953,17 @@
       <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
@@ -2851,8 +2971,8 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,52 +3051,55 @@
         <v>8800</v>
       </c>
       <c r="E54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F54" s="3">
         <v>8900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>6700</v>
       </c>
       <c r="H54" s="3">
         <v>6700</v>
       </c>
       <c r="I54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J54" s="3">
         <v>7100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1700</v>
       </c>
       <c r="R54" s="3">
         <v>1700</v>
       </c>
       <c r="S54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,25 +3141,26 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3053,7 +3184,7 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>1100</v>
@@ -3062,39 +3193,42 @@
         <v>1100</v>
       </c>
       <c r="S57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E58" s="3">
         <v>9700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6800</v>
-      </c>
-      <c r="H58" s="3">
-        <v>6700</v>
       </c>
       <c r="I58" s="3">
         <v>6700</v>
       </c>
       <c r="J58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
@@ -3103,11 +3237,11 @@
         <v>600</v>
       </c>
       <c r="O58" s="3">
+        <v>600</v>
+      </c>
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
@@ -3117,49 +3251,52 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3168,51 +3305,54 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E60" s="3">
         <v>12700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2900</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1400</v>
       </c>
       <c r="Q60" s="3">
         <v>1400</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3235,11 +3378,11 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>8700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3250,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -3265,7 +3408,7 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>300</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3291,16 +3437,16 @@
         <v>1200</v>
       </c>
       <c r="G62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3308,29 +3454,32 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E66" s="3">
         <v>12900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-3600</v>
       </c>
       <c r="G76" s="3">
         <v>-3600</v>
       </c>
       <c r="H76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I76" s="3">
         <v>-3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-400</v>
       </c>
       <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,31 +4836,32 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -4657,8 +4878,8 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,29 +5002,32 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5073,49 +5319,52 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,50 +5416,53 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>SNPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,166 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
       <c r="R8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
       <c r="T8" s="3">
+        <v>300</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -820,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -829,26 +842,26 @@
         <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
@@ -858,64 +871,76 @@
       <c r="T9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,52 +1081,58 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>1200</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>1200</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,29 +1175,29 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
       <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>2000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-200</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1378,15 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1328,14 +1395,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1355,190 +1422,214 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-2600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
       </c>
       <c r="M21" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
         <v>-600</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-600</v>
-      </c>
       <c r="I23" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>-600</v>
       </c>
       <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-600</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>2800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>-600</v>
       </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-600</v>
-      </c>
       <c r="I26" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>-600</v>
       </c>
       <c r="K26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-600</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>2800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>2800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2118,19 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2000,14 +2139,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2027,78 +2166,90 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>2600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
       </c>
       <c r="K33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>2800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
       </c>
       <c r="K35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>2800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2485,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,7 +2496,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2341,37 +2514,43 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,28 +2605,34 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2459,22 +2644,22 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2523,53 +2714,59 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
-        <v>100</v>
-      </c>
-      <c r="R44" s="3">
-        <v>100</v>
-      </c>
       <c r="S44" s="3">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
+        <v>100</v>
+      </c>
+      <c r="U44" s="3">
         <v>200</v>
       </c>
-      <c r="T44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2592,66 +2789,78 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3800</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2691,23 +2900,29 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,46 +2930,46 @@
         <v>2400</v>
       </c>
       <c r="E48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2803,14 +3024,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1400</v>
       </c>
       <c r="S49" s="3">
         <v>1400</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,55 +3163,61 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F52" s="3">
         <v>6300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1700</v>
       </c>
       <c r="J52" s="3">
         <v>1700</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F54" s="3">
         <v>8800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3401,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,7 +3412,7 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -3160,13 +3421,13 @@
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
-        <v>300</v>
-      </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3187,178 +3448,196 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>1100</v>
       </c>
       <c r="T57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
         <v>9900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>9700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>9600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>6800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
-      </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F60" s="3">
         <v>13000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>12200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>9700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1400</v>
       </c>
       <c r="S60" s="3">
         <v>1400</v>
@@ -3366,29 +3645,35 @@
       <c r="T60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>8700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3396,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -3411,10 +3696,10 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>300</v>
@@ -3422,16 +3707,22 @@
       <c r="T61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>300</v>
+      </c>
+      <c r="V61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F62" s="3">
         <v>1200</v>
@@ -3440,7 +3731,7 @@
         <v>1200</v>
       </c>
       <c r="H62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I62" s="3">
         <v>1200</v>
@@ -3448,38 +3739,44 @@
       <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1300</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>1600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>4400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F66" s="3">
         <v>13100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>12900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>12700</v>
       </c>
       <c r="G66" s="3">
         <v>12900</v>
       </c>
       <c r="H66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J66" s="3">
         <v>10300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3400</v>
-      </c>
-      <c r="R66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="S66" s="3">
-        <v>6000</v>
       </c>
       <c r="T66" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V66" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-15800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-2600</v>
       </c>
       <c r="Q76" s="3">
         <v>-1700</v>
       </c>
       <c r="R76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
       </c>
       <c r="K81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>2800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,37 +5276,39 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -4881,11 +5322,11 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,35 +5458,41 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>SNPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,187 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>200</v>
       </c>
       <c r="V8" s="3">
+        <v>300</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
@@ -839,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -848,26 +862,26 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
@@ -877,70 +891,82 @@
       <c r="V9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>100</v>
-      </c>
-      <c r="V10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1113,32 +1153,32 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>1200</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>1200</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,29 +1227,29 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>700</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
+        <v>700</v>
+      </c>
+      <c r="R17" s="3">
+        <v>500</v>
+      </c>
+      <c r="S17" s="3">
         <v>2000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
       </c>
       <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-400</v>
-      </c>
       <c r="H18" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-400</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1446,15 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1401,14 +1469,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1428,225 +1496,249 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-200</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
       <c r="Q21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>2900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>400</v>
+      </c>
+      <c r="M22" s="3">
+        <v>300</v>
+      </c>
+      <c r="N22" s="3">
+        <v>300</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>400</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
-        <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>300</v>
-      </c>
-      <c r="V22" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-600</v>
       </c>
       <c r="H23" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>-600</v>
       </c>
       <c r="M23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-600</v>
       </c>
       <c r="P23" s="3">
         <v>-400</v>
       </c>
       <c r="Q23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-600</v>
+        <v>900</v>
       </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-600</v>
       </c>
       <c r="H26" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>-600</v>
       </c>
       <c r="M26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-600</v>
       </c>
       <c r="P26" s="3">
         <v>-400</v>
       </c>
       <c r="Q26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>2800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
-      </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-400</v>
       </c>
       <c r="Q27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1947,22 +2069,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2258,19 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2145,14 +2285,14 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2172,84 +2312,96 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="N33" s="3">
         <v>-400</v>
       </c>
       <c r="O33" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-400</v>
       </c>
       <c r="Q33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="N35" s="3">
         <v>-400</v>
       </c>
       <c r="O35" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-400</v>
       </c>
       <c r="Q35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2659,10 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,7 +2670,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2520,37 +2694,43 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,34 +2791,40 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2650,22 +2836,22 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2720,59 +2912,65 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="3">
-        <v>100</v>
-      </c>
-      <c r="T44" s="3">
-        <v>100</v>
-      </c>
       <c r="U44" s="3">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
+        <v>100</v>
+      </c>
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2795,72 +2993,84 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3800</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>300</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2906,76 +3116,82 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2400</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>2400</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>2400</v>
       </c>
       <c r="G48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>300</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -2983,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3030,14 +3252,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1400</v>
       </c>
       <c r="U49" s="3">
         <v>1400</v>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,61 +3403,67 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>6600</v>
       </c>
-      <c r="E52" s="3">
-        <v>6400</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H52" s="3">
         <v>6300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1700</v>
       </c>
       <c r="L52" s="3">
         <v>1700</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
         <v>9300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,22 +3663,24 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3427,13 +3689,13 @@
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
-        <v>300</v>
-      </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3454,19 +3716,25 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>1100</v>
       </c>
       <c r="V57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,176 +3742,188 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>9700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>9600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>800</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>6700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
       </c>
       <c r="R58" s="3">
+        <v>600</v>
+      </c>
+      <c r="S58" s="3">
+        <v>600</v>
+      </c>
+      <c r="T58" s="3">
         <v>1400</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
       </c>
       <c r="V59" s="3">
+        <v>200</v>
+      </c>
+      <c r="W59" s="3">
+        <v>200</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>13000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>12700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>12200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2900</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1400</v>
       </c>
       <c r="U60" s="3">
         <v>1400</v>
@@ -3651,20 +3931,26 @@
       <c r="V60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
         <v>10100</v>
       </c>
-      <c r="E61" s="3">
-        <v>9700</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3672,14 +3958,14 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>8700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3687,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -3702,10 +3988,10 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>300</v>
@@ -3713,22 +3999,28 @@
       <c r="V61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>300</v>
+      </c>
+      <c r="X61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1200</v>
-      </c>
       <c r="G62" s="3">
-        <v>1200</v>
+        <v>10800</v>
       </c>
       <c r="H62" s="3">
         <v>1200</v>
@@ -3737,7 +4029,7 @@
         <v>1200</v>
       </c>
       <c r="J62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K62" s="3">
         <v>1200</v>
@@ -3745,38 +4037,44 @@
       <c r="L62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1300</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
+      <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>1600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>4400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="3">
         <v>14100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>12900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>12700</v>
       </c>
       <c r="I66" s="3">
         <v>12900</v>
       </c>
       <c r="J66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="L66" s="3">
         <v>10300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="U66" s="3">
-        <v>6000</v>
       </c>
       <c r="V66" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="X66" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-15800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-2600</v>
       </c>
       <c r="S76" s="3">
         <v>-1700</v>
       </c>
       <c r="T76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-4300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="N81" s="3">
         <v>-400</v>
       </c>
       <c r="O81" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-400</v>
       </c>
       <c r="Q81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,61 +5635,67 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,43 +5718,45 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -5328,11 +5770,11 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,41 +5918,47 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>5700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5931,57 +6435,63 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>SNPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,124 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -788,13 +791,13 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -803,16 +806,16 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
@@ -821,16 +824,19 @@
         <v>200</v>
       </c>
       <c r="V8" s="3">
+        <v>200</v>
+      </c>
+      <c r="W8" s="3">
         <v>300</v>
-      </c>
-      <c r="W8" s="3">
-        <v>200</v>
       </c>
       <c r="X8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,12 +849,12 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -859,32 +865,32 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
@@ -897,26 +903,29 @@
       <c r="X9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
@@ -924,26 +933,26 @@
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
@@ -951,22 +960,25 @@
         <v>0</v>
       </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U10" s="3">
         <v>100</v>
       </c>
       <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1141,17 +1160,17 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1159,17 +1178,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1177,11 +1196,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>1200</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,17 +1255,17 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
@@ -1251,8 +1273,8 @@
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,22 +1311,23 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1310,37 +1336,37 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
@@ -1349,13 +1375,16 @@
         <v>300</v>
       </c>
       <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1369,61 +1398,64 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1472,14 +1505,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1502,22 +1535,25 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1531,61 +1567,64 @@
         <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1599,40 +1638,40 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>300</v>
       </c>
       <c r="O22" s="3">
+        <v>300</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1641,19 +1680,22 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1667,81 +1709,84 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
+      <c r="G24" s="3">
+        <v>100</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,93 +1904,99 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E26" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-600</v>
-      </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E27" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="G27" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
@@ -1951,49 +2005,52 @@
         <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>-400</v>
       </c>
       <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,35 +2117,38 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E29" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G29" s="3">
         <v>-400</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I29" s="3">
         <v>-300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-300</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2288,14 +2357,14 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2318,90 +2387,96 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E33" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-400</v>
       </c>
       <c r="L33" s="3">
         <v>-400</v>
       </c>
       <c r="M33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E35" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-400</v>
       </c>
       <c r="L35" s="3">
         <v>-400</v>
       </c>
       <c r="M35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2700,37 +2786,40 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,19 +2898,19 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2827,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2842,19 +2934,19 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,23 +3013,26 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U44" s="3">
-        <v>100</v>
-      </c>
       <c r="V44" s="3">
         <v>100</v>
       </c>
       <c r="W44" s="3">
+        <v>100</v>
+      </c>
+      <c r="X44" s="3">
         <v>200</v>
       </c>
-      <c r="X44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2945,35 +3043,35 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3600</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2999,58 +3097,61 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3800</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
@@ -3058,10 +3159,10 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
-      </c>
-      <c r="V46" s="3">
-        <v>300</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3122,12 +3226,12 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3149,34 +3256,34 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3185,7 +3292,7 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>300</v>
@@ -3194,7 +3301,7 @@
         <v>300</v>
       </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3258,11 +3368,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="U49" s="3">
-        <v>1400</v>
       </c>
       <c r="V49" s="3">
         <v>1400</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3421,25 +3540,25 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>6600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1700</v>
       </c>
       <c r="M52" s="3">
         <v>1700</v>
@@ -3447,17 +3566,17 @@
       <c r="N52" s="3">
         <v>1700</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
@@ -3465,8 +3584,8 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
         <v>9300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>8800</v>
       </c>
       <c r="I54" s="3">
         <v>8800</v>
       </c>
       <c r="J54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K54" s="3">
         <v>8900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>6700</v>
       </c>
       <c r="M54" s="3">
         <v>6700</v>
       </c>
       <c r="N54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="O54" s="3">
         <v>7100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
-      </c>
-      <c r="S54" s="3">
-        <v>400</v>
       </c>
       <c r="T54" s="3">
         <v>400</v>
       </c>
       <c r="U54" s="3">
+        <v>400</v>
+      </c>
+      <c r="V54" s="3">
         <v>1600</v>
-      </c>
-      <c r="V54" s="3">
-        <v>1700</v>
       </c>
       <c r="W54" s="3">
         <v>1700</v>
       </c>
       <c r="X54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3677,28 +3807,28 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -3722,7 +3852,7 @@
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>1100</v>
@@ -3731,10 +3861,13 @@
         <v>1100</v>
       </c>
       <c r="X57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,37 +3881,37 @@
         <v>700</v>
       </c>
       <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>6700</v>
       </c>
       <c r="N58" s="3">
         <v>6700</v>
       </c>
       <c r="O58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>600</v>
       </c>
       <c r="R58" s="3">
         <v>600</v>
@@ -3787,11 +3920,11 @@
         <v>600</v>
       </c>
       <c r="T58" s="3">
+        <v>600</v>
+      </c>
+      <c r="U58" s="3">
         <v>1400</v>
       </c>
-      <c r="U58" s="3">
-        <v>100</v>
-      </c>
       <c r="V58" s="3">
         <v>100</v>
       </c>
@@ -3801,64 +3934,67 @@
       <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
-      </c>
-      <c r="U59" s="3">
-        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
@@ -3867,10 +4003,13 @@
         <v>200</v>
       </c>
       <c r="X59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,55 +4017,55 @@
         <v>3100</v>
       </c>
       <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2900</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1400</v>
       </c>
       <c r="V60" s="3">
         <v>1400</v>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,14 +4088,14 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
         <v>10100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3964,11 +4106,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>8700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3979,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -3994,7 +4136,7 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
         <v>300</v>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4017,13 +4162,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1200</v>
       </c>
       <c r="I62" s="3">
         <v>1200</v>
@@ -4035,16 +4180,16 @@
         <v>1200</v>
       </c>
       <c r="L62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M62" s="3">
         <v>1300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -4052,29 +4197,32 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
         <v>3100</v>
       </c>
       <c r="F66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G66" s="3">
         <v>14100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4813,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4655,64 +4828,67 @@
         <v>-7800</v>
       </c>
       <c r="F72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-9800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-15800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-3600</v>
       </c>
       <c r="L76" s="3">
         <v>-3600</v>
       </c>
       <c r="M76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="N76" s="3">
         <v>-3300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-4300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E81" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-400</v>
       </c>
       <c r="L81" s="3">
         <v>-400</v>
       </c>
       <c r="M81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,67 +5851,70 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5731,35 +5951,35 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>100</v>
-      </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -5776,8 +5996,8 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5933,35 +6162,35 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,17 +6544,17 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>500</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6317,49 +6562,52 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>5700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6441,50 +6692,50 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>SNPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,192 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>200</v>
       </c>
       <c r="W8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X8" s="3">
         <v>200</v>
       </c>
       <c r="Y8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -852,14 +866,14 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -868,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -877,26 +891,26 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
-        <v>100</v>
-      </c>
-      <c r="V9" s="3">
-        <v>100</v>
-      </c>
       <c r="W9" s="3">
         <v>100</v>
       </c>
@@ -906,79 +920,91 @@
       <c r="Y9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>200</v>
       </c>
-      <c r="X10" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,25 +1180,31 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1172,42 +1212,42 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>1200</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1258,29 +1304,29 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,13 +1364,15 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1330,7 +1384,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1339,52 +1393,58 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>700</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
       </c>
       <c r="T17" s="3">
+        <v>700</v>
+      </c>
+      <c r="U17" s="3">
+        <v>500</v>
+      </c>
+      <c r="V17" s="3">
         <v>2000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1395,67 +1455,73 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,13 +1547,15 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1508,17 +1576,17 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1538,43 +1606,49 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
@@ -1582,49 +1656,55 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
       <c r="R21" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>2900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1647,55 +1727,61 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1706,93 +1792,99 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>-600</v>
       </c>
       <c r="P23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-600</v>
       </c>
       <c r="S23" s="3">
         <v>-400</v>
       </c>
       <c r="T23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>2800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>-600</v>
       </c>
       <c r="P26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-600</v>
       </c>
       <c r="S26" s="3">
         <v>-400</v>
       </c>
       <c r="T26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>2800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
       </c>
       <c r="R27" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-400</v>
       </c>
       <c r="T27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>2800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,40 +2236,46 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-400</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>5700</v>
       </c>
-      <c r="G29" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J29" s="3">
         <v>-600</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-500</v>
       </c>
       <c r="K29" s="3">
         <v>-300</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,13 +2467,19 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2360,17 +2500,17 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2390,93 +2530,105 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>2600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>4200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-400</v>
       </c>
       <c r="R33" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-400</v>
       </c>
       <c r="T33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>2800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>4200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-400</v>
       </c>
       <c r="R35" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-400</v>
       </c>
       <c r="T35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>2800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,13 +2919,15 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2789,37 +2963,43 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>100</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2901,31 +3087,31 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2937,22 +3123,22 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3016,68 +3208,74 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
+      <c r="U44" s="3">
+        <v>0</v>
       </c>
       <c r="V44" s="3">
-        <v>100</v>
-      </c>
-      <c r="W44" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z44" s="3">
         <v>200</v>
       </c>
-      <c r="Y44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3600</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
@@ -3100,81 +3298,93 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3800</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
       <c r="U46" s="3">
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
-      </c>
-      <c r="W46" s="3">
-        <v>300</v>
-      </c>
-      <c r="X46" s="3">
-        <v>300</v>
       </c>
       <c r="Y46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3229,14 +3439,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3259,55 +3475,55 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>2400</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>2400</v>
       </c>
       <c r="J48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L48" s="3">
         <v>2300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>300</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3371,14 +3593,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="W49" s="3">
-        <v>1400</v>
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X49" s="3">
         <v>1400</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3543,55 +3783,55 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>6600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>6300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1700</v>
       </c>
       <c r="O52" s="3">
         <v>1700</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
+      <c r="P52" s="3">
+        <v>1700</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
+        <v>1700</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,13 +4055,15 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3810,7 +4072,7 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3819,7 +4081,7 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3828,13 +4090,13 @@
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
-        <v>300</v>
-      </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -3855,19 +4117,25 @@
         <v>300</v>
       </c>
       <c r="V57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="W57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>1100</v>
       </c>
       <c r="Y57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3884,194 +4152,206 @@
         <v>700</v>
       </c>
       <c r="H58" s="3">
+        <v>700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>700</v>
+      </c>
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>9900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>9700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>9600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>6800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>6700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>600</v>
       </c>
       <c r="T58" s="3">
         <v>600</v>
       </c>
       <c r="U58" s="3">
+        <v>600</v>
+      </c>
+      <c r="V58" s="3">
+        <v>600</v>
+      </c>
+      <c r="W58" s="3">
         <v>1400</v>
       </c>
-      <c r="V58" s="3">
-        <v>100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>100</v>
-      </c>
       <c r="X58" s="3">
         <v>100</v>
       </c>
       <c r="Y58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1100</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
       </c>
       <c r="Y59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>13000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2900</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="W60" s="3">
-        <v>1400</v>
       </c>
       <c r="X60" s="3">
         <v>1400</v>
@@ -4079,8 +4359,14 @@
       <c r="Y60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4091,17 +4377,17 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>10100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4109,14 +4395,14 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>8700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4124,10 +4410,10 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
@@ -4139,10 +4425,10 @@
         <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>300</v>
@@ -4150,31 +4436,37 @@
       <c r="Y61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>10800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1200</v>
       </c>
       <c r="K62" s="3">
         <v>1200</v>
@@ -4183,7 +4475,7 @@
         <v>1200</v>
       </c>
       <c r="M62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N62" s="3">
         <v>1200</v>
@@ -4191,38 +4483,44 @@
       <c r="O62" s="3">
         <v>1300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1300</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3">
         <v>1600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>4400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4744,14 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4443,70 +4759,76 @@
         <v>3200</v>
       </c>
       <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>13100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>12900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>12700</v>
       </c>
       <c r="L66" s="3">
         <v>12900</v>
       </c>
       <c r="M66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="N66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="O66" s="3">
         <v>10300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3400</v>
-      </c>
-      <c r="W66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="X66" s="3">
-        <v>6000</v>
       </c>
       <c r="Y66" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +5158,14 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4825,70 +5173,76 @@
         <v>-7800</v>
       </c>
       <c r="E72" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="F72" s="3">
         <v>-7800</v>
       </c>
       <c r="G72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-9800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-13500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-13000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-15800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-2800</v>
       </c>
       <c r="F76" s="3">
         <v>-2900</v>
       </c>
       <c r="G76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I76" s="3">
         <v>-4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-2600</v>
       </c>
       <c r="V76" s="3">
         <v>-1700</v>
       </c>
       <c r="W76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-1500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>4200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-400</v>
       </c>
       <c r="R81" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-400</v>
       </c>
       <c r="T81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>2800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5954,38 +6396,38 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -5999,11 +6441,11 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,13 +6607,19 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -6168,35 +6628,35 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6547,67 +7039,73 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>500</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>5700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,13 +7175,19 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6695,57 +7199,63 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>SNPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,145 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -808,13 +812,13 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
@@ -823,16 +827,16 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>200</v>
@@ -841,16 +845,19 @@
         <v>200</v>
       </c>
       <c r="Y8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z8" s="3">
         <v>300</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>200</v>
       </c>
       <c r="AA8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -872,11 +879,11 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -888,32 +895,32 @@
         <v>0</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
       <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
         <v>200</v>
       </c>
-      <c r="W9" s="3">
-        <v>100</v>
-      </c>
       <c r="X9" s="3">
         <v>100</v>
       </c>
@@ -926,34 +933,37 @@
       <c r="AA9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -962,26 +972,26 @@
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
@@ -989,22 +999,25 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
       <c r="Y10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,8 +1217,8 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1206,8 +1226,8 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1218,8 +1238,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1227,17 +1247,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1245,12 +1265,12 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>1200</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1310,17 +1333,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>8</v>
@@ -1328,8 +1351,8 @@
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1378,17 +1405,17 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
@@ -1399,37 +1426,37 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2000</v>
-      </c>
-      <c r="W17" s="3">
-        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>300</v>
@@ -1438,18 +1465,21 @@
         <v>300</v>
       </c>
       <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1461,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1470,58 +1500,61 @@
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-100</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,16 +1582,17 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1582,14 +1616,14 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1612,30 +1646,33 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1644,13 +1681,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1662,49 +1699,52 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1733,34 +1773,34 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
-      </c>
-      <c r="P22" s="3">
-        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>300</v>
       </c>
       <c r="R22" s="3">
+        <v>300</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
-        <v>100</v>
-      </c>
       <c r="T22" s="3">
         <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1769,24 +1809,27 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
       </c>
       <c r="Z22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AA22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1798,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1807,87 +1850,90 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
-        <v>100</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
+      <c r="J24" s="3">
+        <v>100</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,25 +2060,28 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -2038,84 +2090,87 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>200</v>
       </c>
       <c r="J27" s="3">
         <v>200</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
@@ -2124,49 +2179,52 @@
         <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2254,32 +2315,32 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-400</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>5700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-300</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,17 +2540,20 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2506,14 +2576,14 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2536,99 +2606,105 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,17 +3007,18 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
@@ -2969,37 +3056,40 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,13 +3165,16 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3093,19 +3186,19 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -3114,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -3129,19 +3222,19 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3214,23 +3310,26 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X44" s="3">
-        <v>100</v>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y44" s="3">
         <v>100</v>
       </c>
       <c r="Z44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA44" s="3">
         <v>200</v>
       </c>
-      <c r="AA44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3240,8 +3339,8 @@
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3250,35 +3349,35 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3600</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
@@ -3304,10 +3403,13 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3315,56 +3417,56 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3800</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
@@ -3372,10 +3474,10 @@
         <v>100</v>
       </c>
       <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>300</v>
       </c>
       <c r="Z46" s="3">
         <v>300</v>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3445,11 +3550,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3460,13 +3565,16 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -3481,34 +3589,34 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
+        <v>100</v>
+      </c>
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
@@ -3517,7 +3625,7 @@
         <v>200</v>
       </c>
       <c r="U48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>300</v>
@@ -3526,7 +3634,7 @@
         <v>300</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3599,11 +3710,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X49" s="3">
-        <v>1400</v>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y49" s="3">
         <v>1400</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3789,25 +3909,25 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>6600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1700</v>
       </c>
       <c r="P52" s="3">
         <v>1700</v>
@@ -3815,17 +3935,17 @@
       <c r="Q52" s="3">
         <v>1700</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="R52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
@@ -3833,8 +3953,8 @@
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>300</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
         <v>9300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>8800</v>
       </c>
       <c r="L54" s="3">
         <v>8800</v>
       </c>
       <c r="M54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="N54" s="3">
         <v>8900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>6700</v>
       </c>
       <c r="P54" s="3">
         <v>6700</v>
       </c>
       <c r="Q54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="R54" s="3">
         <v>7100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
-      </c>
-      <c r="V54" s="3">
-        <v>400</v>
       </c>
       <c r="W54" s="3">
         <v>400</v>
       </c>
       <c r="X54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1600</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>1700</v>
       </c>
       <c r="Z54" s="3">
         <v>1700</v>
       </c>
       <c r="AA54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AB54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,7 +4197,7 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -4078,28 +4209,28 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -4123,7 +4254,7 @@
         <v>300</v>
       </c>
       <c r="X57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>1100</v>
@@ -4132,10 +4263,13 @@
         <v>1100</v>
       </c>
       <c r="AA57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4158,37 +4292,37 @@
         <v>700</v>
       </c>
       <c r="J58" s="3">
+        <v>700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>6700</v>
       </c>
       <c r="Q58" s="3">
         <v>6700</v>
       </c>
       <c r="R58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>600</v>
       </c>
       <c r="U58" s="3">
         <v>600</v>
@@ -4197,11 +4331,11 @@
         <v>600</v>
       </c>
       <c r="W58" s="3">
+        <v>600</v>
+      </c>
+      <c r="X58" s="3">
         <v>1400</v>
       </c>
-      <c r="X58" s="3">
-        <v>100</v>
-      </c>
       <c r="Y58" s="3">
         <v>100</v>
       </c>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,64 +4357,64 @@
         <v>2400</v>
       </c>
       <c r="E59" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F59" s="3">
         <v>2300</v>
       </c>
       <c r="G59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
-      </c>
-      <c r="X59" s="3">
-        <v>200</v>
       </c>
       <c r="Y59" s="3">
         <v>200</v>
@@ -4286,10 +4423,13 @@
         <v>200</v>
       </c>
       <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4300,61 +4440,61 @@
         <v>3200</v>
       </c>
       <c r="F60" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G60" s="3">
         <v>3100</v>
       </c>
       <c r="H60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2900</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1400</v>
       </c>
       <c r="Y60" s="3">
         <v>1400</v>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4383,14 +4526,14 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>10100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4401,11 +4544,11 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>8700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4416,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
@@ -4431,7 +4574,7 @@
         <v>100</v>
       </c>
       <c r="X61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="3">
         <v>300</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4453,8 +4599,8 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4463,13 +4609,13 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1200</v>
       </c>
       <c r="L62" s="3">
         <v>1200</v>
@@ -4481,46 +4627,49 @@
         <v>1200</v>
       </c>
       <c r="O62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P62" s="3">
         <v>1300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="3">
         <v>1600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>4400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,13 +4905,16 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E66" s="3">
         <v>3200</v>
@@ -4765,70 +4923,73 @@
         <v>3200</v>
       </c>
       <c r="G66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H66" s="3">
         <v>3100</v>
       </c>
       <c r="I66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J66" s="3">
         <v>14100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,19 +5335,22 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-7800</v>
       </c>
       <c r="G72" s="3">
         <v>-7800</v>
@@ -5185,64 +5359,67 @@
         <v>-7800</v>
       </c>
       <c r="I72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="J72" s="3">
         <v>-9800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-15800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2800</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-2900</v>
       </c>
       <c r="F76" s="3">
         <v>-2900</v>
       </c>
       <c r="G76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-3600</v>
       </c>
       <c r="O76" s="3">
         <v>-3600</v>
       </c>
       <c r="P76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,16 +6490,19 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -6294,67 +6511,70 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6402,35 +6623,35 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>100</v>
-      </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -6447,8 +6668,8 @@
       <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,16 +6840,19 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -6634,32 +6864,32 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7045,17 +7291,17 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -7063,49 +7309,52 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>5700</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,16 +7430,19 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -7205,50 +7457,50 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>SNPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,79 +792,85 @@
         <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
         <v>200</v>
       </c>
       <c r="Z8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA8" s="3">
         <v>200</v>
       </c>
       <c r="AB8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,14 +895,14 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -898,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -907,26 +920,26 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
         <v>200</v>
       </c>
-      <c r="X9" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>100</v>
-      </c>
       <c r="Z9" s="3">
         <v>100</v>
       </c>
@@ -936,8 +949,14 @@
       <c r="AB9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,79 +964,85 @@
         <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>100</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,34 +1239,40 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1241,42 +1280,42 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1336,29 +1381,29 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,22 +1444,24 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>100</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1420,7 +1473,7 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1429,52 +1482,58 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>700</v>
       </c>
       <c r="V17" s="3">
         <v>500</v>
       </c>
       <c r="W17" s="3">
+        <v>700</v>
+      </c>
+      <c r="X17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y17" s="3">
         <v>2000</v>
-      </c>
-      <c r="X17" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>300</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
       </c>
       <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,10 +1541,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -1494,67 +1553,73 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,13 +1659,13 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1619,17 +1686,17 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1649,22 +1716,28 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>2900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-2600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,29 +1745,29 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
@@ -1702,49 +1775,55 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>-300</v>
       </c>
       <c r="U21" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
       </c>
       <c r="W21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-1800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>2900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1776,66 +1855,72 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
-      </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC22" s="3">
         <v>300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1844,102 +1929,108 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>-600</v>
       </c>
       <c r="S23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-600</v>
       </c>
       <c r="V23" s="3">
         <v>-400</v>
       </c>
       <c r="W23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>2800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
-        <v>100</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>-600</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-700</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>-600</v>
       </c>
       <c r="S26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-600</v>
       </c>
       <c r="V26" s="3">
         <v>-400</v>
       </c>
       <c r="W26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-1900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>2800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="T27" s="3">
         <v>-400</v>
       </c>
       <c r="U27" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="V27" s="3">
         <v>-400</v>
       </c>
       <c r="W27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-1900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>2800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,13 +2418,19 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2318,34 +2439,34 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-400</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>5700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-600</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-500</v>
       </c>
       <c r="N29" s="3">
         <v>-300</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,14 +2691,14 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2579,17 +2718,17 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2609,102 +2748,114 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>2600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>4200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-500</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="T33" s="3">
         <v>-400</v>
       </c>
       <c r="U33" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="V33" s="3">
         <v>-400</v>
       </c>
       <c r="W33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-1900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>2800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>4200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-500</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="T35" s="3">
         <v>-400</v>
       </c>
       <c r="U35" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="V35" s="3">
         <v>-400</v>
       </c>
       <c r="W35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-1900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>2800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,23 +3179,25 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
@@ -3059,37 +3232,43 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3177,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -3189,31 +3374,31 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -3225,22 +3410,22 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3313,34 +3504,40 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
+      <c r="X44" s="3">
+        <v>0</v>
       </c>
       <c r="Y44" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC44" s="3">
         <v>200</v>
       </c>
-      <c r="AB44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3352,38 +3549,38 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3600</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
@@ -3406,90 +3603,102 @@
         <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3800</v>
       </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
       <c r="X46" s="3">
         <v>100</v>
       </c>
       <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>300</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>300</v>
       </c>
       <c r="AB46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3553,14 +3762,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
+      <c r="X47" s="3">
+        <v>0</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3568,19 +3777,25 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -3592,55 +3807,55 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>2400</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>2400</v>
       </c>
       <c r="M48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O48" s="3">
         <v>2300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>200</v>
       </c>
       <c r="V48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X48" s="3">
         <v>300</v>
       </c>
       <c r="Y48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
@@ -3648,8 +3863,14 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3713,14 +3934,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
+      <c r="X49" s="3">
+        <v>0</v>
       </c>
       <c r="Y49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>1400</v>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA49" s="3">
         <v>1400</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3912,55 +4151,55 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>6600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>6000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1700</v>
       </c>
       <c r="R52" s="3">
         <v>1700</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
+      <c r="S52" s="3">
+        <v>1700</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
+        <v>1700</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>300</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4200,19 +4461,19 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -4221,7 +4482,7 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -4230,13 +4491,13 @@
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
-        <v>300</v>
-      </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
@@ -4257,19 +4518,25 @@
         <v>300</v>
       </c>
       <c r="Y57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="Z57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="AA57" s="3">
         <v>1100</v>
       </c>
       <c r="AB57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4295,212 +4562,224 @@
         <v>700</v>
       </c>
       <c r="K58" s="3">
+        <v>700</v>
+      </c>
+      <c r="L58" s="3">
+        <v>700</v>
+      </c>
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>9900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>9700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>9600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>6800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>6700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>6700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>700</v>
-      </c>
-      <c r="U58" s="3">
-        <v>600</v>
-      </c>
-      <c r="V58" s="3">
-        <v>600</v>
       </c>
       <c r="W58" s="3">
         <v>600</v>
       </c>
       <c r="X58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1400</v>
       </c>
-      <c r="Y58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>100</v>
-      </c>
       <c r="AA58" s="3">
         <v>100</v>
       </c>
       <c r="AB58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>200</v>
       </c>
       <c r="AA59" s="3">
         <v>200</v>
       </c>
       <c r="AB59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E60" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F60" s="3">
         <v>3200</v>
       </c>
       <c r="G60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>12200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2900</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>1400</v>
       </c>
       <c r="AA60" s="3">
         <v>1400</v>
@@ -4508,8 +4787,14 @@
       <c r="AB60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4529,17 +4814,17 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
         <v>10100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4547,14 +4832,14 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>8700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4562,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
@@ -4577,10 +4862,10 @@
         <v>100</v>
       </c>
       <c r="Y61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Z61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="3">
         <v>300</v>
@@ -4588,19 +4873,25 @@
       <c r="AB61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4612,16 +4903,16 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1200</v>
       </c>
       <c r="N62" s="3">
         <v>1200</v>
@@ -4630,7 +4921,7 @@
         <v>1200</v>
       </c>
       <c r="P62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="Q62" s="3">
         <v>1200</v>
@@ -4638,38 +4929,44 @@
       <c r="R62" s="3">
         <v>1300</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T62" s="3">
+        <v>1300</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
       </c>
       <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3">
         <v>1600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>4400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5217,14 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4917,79 +5232,85 @@
         <v>3300</v>
       </c>
       <c r="E66" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F66" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G66" s="3">
         <v>3200</v>
       </c>
       <c r="H66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I66" s="3">
         <v>3100</v>
       </c>
       <c r="J66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L66" s="3">
         <v>14100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>12900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>12700</v>
       </c>
       <c r="O66" s="3">
         <v>12900</v>
       </c>
       <c r="P66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>12900</v>
+      </c>
+      <c r="R66" s="3">
         <v>10300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>10000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3400</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>6000</v>
       </c>
       <c r="AB66" s="3">
         <v>3200</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,16 +5679,22 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="E72" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="F72" s="3">
         <v>-7900</v>
@@ -5356,70 +5703,76 @@
         <v>-7800</v>
       </c>
       <c r="H72" s="3">
-        <v>-7800</v>
+        <v>-7900</v>
       </c>
       <c r="I72" s="3">
         <v>-7800</v>
       </c>
       <c r="J72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="L72" s="3">
         <v>-9800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-7000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-5900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-5300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-4900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-13500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-15800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="H76" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-2000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1900</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-2600</v>
       </c>
       <c r="Y76" s="3">
         <v>-1700</v>
       </c>
       <c r="Z76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>4200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-500</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="T81" s="3">
         <v>-400</v>
       </c>
       <c r="U81" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="V81" s="3">
         <v>-400</v>
       </c>
       <c r="W81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-1900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>2800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,79 +6935,85 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>100</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,61 +7042,63 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
@@ -6671,11 +7112,11 @@
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6852,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -6867,35 +7326,35 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7294,67 +7785,73 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>500</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>5700</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3">
-        <v>100</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7442,13 +7945,13 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -7460,57 +7963,63 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNPW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>SNPW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -798,28 +802,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
@@ -828,13 +832,13 @@
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
@@ -843,16 +847,16 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="3">
         <v>200</v>
@@ -861,16 +865,19 @@
         <v>200</v>
       </c>
       <c r="AB8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC8" s="3">
         <v>300</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>200</v>
       </c>
       <c r="AD8" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -901,12 +908,12 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
@@ -917,32 +924,32 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
       </c>
       <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3">
         <v>200</v>
       </c>
-      <c r="Z9" s="3">
-        <v>100</v>
-      </c>
       <c r="AA9" s="3">
         <v>100</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -970,29 +980,29 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
       <c r="K10" s="3">
         <v>100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
@@ -1000,26 +1010,26 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
-        <v>100</v>
-      </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
@@ -1027,22 +1037,25 @@
         <v>0</v>
       </c>
       <c r="Z10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="3">
         <v>100</v>
       </c>
       <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
         <v>200</v>
       </c>
-      <c r="AC10" s="3">
-        <v>100</v>
-      </c>
       <c r="AD10" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,19 +1262,22 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1265,8 +1285,8 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1274,8 +1294,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1286,8 +1306,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1295,17 +1315,17 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1313,11 +1333,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1200</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1387,17 +1410,17 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>8</v>
@@ -1405,8 +1428,8 @@
       <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,20 +1472,21 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>-100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
@@ -1467,17 +1494,17 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
@@ -1488,37 +1515,37 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2000</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>300</v>
       </c>
       <c r="AA17" s="3">
         <v>300</v>
@@ -1527,13 +1554,16 @@
         <v>300</v>
       </c>
       <c r="AC17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,14 +1571,14 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1559,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1568,58 +1598,61 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
       </c>
       <c r="AA18" s="3">
         <v>-100</v>
       </c>
       <c r="AB18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1665,10 +1699,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1692,14 +1726,14 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1722,22 +1756,25 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1751,10 +1788,10 @@
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1763,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -1781,49 +1818,52 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1861,34 +1901,34 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
-      </c>
-      <c r="S22" s="3">
-        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>300</v>
       </c>
       <c r="U22" s="3">
+        <v>300</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
-        <v>100</v>
-      </c>
       <c r="W22" s="3">
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1897,24 +1937,27 @@
         <v>0</v>
       </c>
       <c r="AA22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="3">
         <v>100</v>
       </c>
       <c r="AC22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AD22" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1923,7 +1966,7 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1935,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1944,96 +1987,99 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="J24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
+      <c r="M24" s="3">
+        <v>100</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,13 +2215,16 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -2181,19 +2233,19 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -2202,63 +2254,66 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -2267,28 +2322,28 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>200</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
@@ -2297,49 +2352,52 @@
         <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,16 +2482,19 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2445,32 +2506,32 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-400</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>5700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-300</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2697,11 +2767,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2724,14 +2794,14 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2754,27 +2824,30 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2783,79 +2856,82 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,13 +3016,16 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2955,170 +3034,176 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,26 +3267,27 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
+      <c r="D41" s="3">
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
@@ -3238,37 +3325,40 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3368,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -3380,19 +3473,19 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3401,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -3416,19 +3509,19 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
         <v>100</v>
       </c>
       <c r="AA43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3510,23 +3606,26 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-      <c r="Z44" s="3" t="s">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA44" s="3">
-        <v>100</v>
-      </c>
       <c r="AB44" s="3">
         <v>100</v>
       </c>
       <c r="AC44" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD44" s="3">
         <v>200</v>
       </c>
-      <c r="AD44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3555,35 +3654,35 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3600</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
@@ -3609,10 +3708,13 @@
         <v>0</v>
       </c>
       <c r="AD45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3620,65 +3722,65 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3800</v>
       </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
-        <v>100</v>
-      </c>
       <c r="Y46" s="3">
         <v>100</v>
       </c>
@@ -3686,10 +3788,10 @@
         <v>100</v>
       </c>
       <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>300</v>
       </c>
       <c r="AC46" s="3">
         <v>300</v>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3768,12 +3873,12 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-      <c r="Z47" s="3" t="s">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
-      </c>
       <c r="AB47" s="3">
         <v>0</v>
       </c>
@@ -3783,22 +3888,25 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3813,34 +3921,34 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1500</v>
-      </c>
-      <c r="U48" s="3">
-        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
@@ -3849,7 +3957,7 @@
         <v>200</v>
       </c>
       <c r="X48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y48" s="3">
         <v>300</v>
@@ -3858,7 +3966,7 @@
         <v>300</v>
       </c>
       <c r="AA48" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB48" s="3">
         <v>0</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3940,11 +4051,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-      <c r="Z49" s="3" t="s">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>1400</v>
       </c>
       <c r="AB49" s="3">
         <v>1400</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4157,25 +4277,25 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>6600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5700</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1700</v>
       </c>
       <c r="S52" s="3">
         <v>1700</v>
@@ -4183,17 +4303,17 @@
       <c r="T52" s="3">
         <v>1700</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="U52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
@@ -4201,8 +4321,8 @@
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA52" s="3">
-        <v>0</v>
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4308,85 +4434,88 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3">
         <v>9300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>8800</v>
       </c>
       <c r="O54" s="3">
         <v>8800</v>
       </c>
       <c r="P54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>8900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9300</v>
-      </c>
-      <c r="R54" s="3">
-        <v>6700</v>
       </c>
       <c r="S54" s="3">
         <v>6700</v>
       </c>
       <c r="T54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="U54" s="3">
         <v>7100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>300</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>400</v>
       </c>
       <c r="Z54" s="3">
         <v>400</v>
       </c>
       <c r="AA54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB54" s="3">
         <v>1600</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>1700</v>
       </c>
       <c r="AC54" s="3">
         <v>1700</v>
       </c>
       <c r="AD54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AE54" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4467,40 +4598,40 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
@@ -4524,7 +4655,7 @@
         <v>300</v>
       </c>
       <c r="AA57" s="3">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="AB57" s="3">
         <v>1100</v>
@@ -4533,15 +4664,18 @@
         <v>1100</v>
       </c>
       <c r="AD57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE57" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
@@ -4568,37 +4702,37 @@
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>9900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>9700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>9600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>6700</v>
       </c>
       <c r="T58" s="3">
         <v>6700</v>
       </c>
       <c r="U58" s="3">
+        <v>6700</v>
+      </c>
+      <c r="V58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>700</v>
-      </c>
-      <c r="W58" s="3">
-        <v>600</v>
       </c>
       <c r="X58" s="3">
         <v>600</v>
@@ -4607,11 +4741,11 @@
         <v>600</v>
       </c>
       <c r="Z58" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1400</v>
       </c>
-      <c r="AA58" s="3">
-        <v>100</v>
-      </c>
       <c r="AB58" s="3">
         <v>100</v>
       </c>
@@ -4621,82 +4755,85 @@
       <c r="AD58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E59" s="3">
         <v>2500</v>
       </c>
       <c r="F59" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G59" s="3">
         <v>2400</v>
       </c>
       <c r="H59" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I59" s="3">
         <v>2300</v>
       </c>
       <c r="J59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>200</v>
       </c>
       <c r="AB59" s="3">
         <v>200</v>
@@ -4705,21 +4842,24 @@
         <v>200</v>
       </c>
       <c r="AD59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E60" s="3">
         <v>3300</v>
       </c>
       <c r="F60" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G60" s="3">
         <v>3200</v>
@@ -4728,61 +4868,61 @@
         <v>3200</v>
       </c>
       <c r="I60" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J60" s="3">
         <v>3100</v>
       </c>
       <c r="K60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2900</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>1400</v>
       </c>
       <c r="AB60" s="3">
         <v>1400</v>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4820,14 +4963,14 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
         <v>10100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4838,11 +4981,11 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>8700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4853,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>100</v>
@@ -4868,7 +5011,7 @@
         <v>100</v>
       </c>
       <c r="AA61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="AB61" s="3">
         <v>300</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4909,13 +5055,13 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1200</v>
       </c>
       <c r="O62" s="3">
         <v>1200</v>
@@ -4927,16 +5073,16 @@
         <v>1200</v>
       </c>
       <c r="R62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S62" s="3">
         <v>1300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1300</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
@@ -4944,29 +5090,32 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-      <c r="Z62" s="3" t="s">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>4400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,13 +5378,16 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E66" s="3">
         <v>3300</v>
@@ -5238,13 +5396,13 @@
         <v>3300</v>
       </c>
       <c r="G66" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H66" s="3">
         <v>3200</v>
       </c>
       <c r="I66" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J66" s="3">
         <v>3100</v>
@@ -5253,64 +5411,67 @@
         <v>3100</v>
       </c>
       <c r="L66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M66" s="3">
         <v>14100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,28 +5856,31 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-7800</v>
       </c>
       <c r="J72" s="3">
         <v>-7800</v>
@@ -5715,64 +5889,67 @@
         <v>-7800</v>
       </c>
       <c r="L72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="M72" s="3">
         <v>-9800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-13500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-13000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-15800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-12700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-2800</v>
       </c>
       <c r="J76" s="3">
         <v>-2800</v>
       </c>
       <c r="K76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-3600</v>
       </c>
       <c r="R76" s="3">
         <v>-3600</v>
       </c>
       <c r="S76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="T76" s="3">
         <v>-3300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-4300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,104 +6390,110 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -6307,79 +6502,82 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,25 +7140,28 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -6953,67 +7170,70 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7070,38 +7291,38 @@
       <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>100</v>
-      </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>1400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
@@ -7118,8 +7339,8 @@
       <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7317,10 +7547,10 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -7332,32 +7562,32 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1600</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,13 +8007,16 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7791,17 +8037,17 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7809,49 +8055,52 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>2700</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>5700</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
       <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
       <c r="AC100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7945,16 +8197,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -7969,50 +8221,50 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1600</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
